--- a/database.xlsx
+++ b/database.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhgol\Desktop\개발\프론트엔드\factorization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241DE081-2486-4FA0-8DB5-929848C0BADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7A739F-5B80-4740-93DE-EB89BE5121E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인수분해" sheetId="6" r:id="rId1"/>
     <sheet name="처방" sheetId="1" r:id="rId2"/>
     <sheet name="기본" sheetId="2" r:id="rId3"/>
     <sheet name="약재" sheetId="3" r:id="rId4"/>
-    <sheet name="약재_한자(한글)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -75,10 +74,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">	비위론(脾胃論)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>인삼(人蔘), 복령(茯苓), 백출(白朮), 감초(甘草)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -131,6 +126,30 @@
   </si>
   <si>
     <t>인수분해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔물탕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대보기혈(大補氣血), 조화음양(調和陰陽)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감초(甘草), 당귀(當歸), 복령(茯苓), 백작약(白芍藥), 백출(白朮), 숙지황(熟地黃), 인삼(人蔘), 천궁(川芎)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비위론(脾胃論)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당귀(當歸), 백작약(白芍藥), 숙지황(熟地黃), 천궁(川芎)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사물탕</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9699CE37-96BC-4091-89B3-376AEBE67CA0}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -497,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -509,10 +528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -548,24 +567,36 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA19F3C-CCEA-4F92-8B67-3503A003035F}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -595,16 +626,24 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA10C33-FCFC-4402-984D-CD53C426A648}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -648,86 +687,47 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AD48E9-0D48-4E73-BAC6-75F39BE1582E}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhgol\Desktop\개발\프론트엔드\factorization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7A739F-5B80-4740-93DE-EB89BE5121E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6748E3E1-D1D6-46AE-B83A-5D2D75919CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>치료원리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>출전</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -106,58 +102,1358 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>복령(茯苓)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태평혜민화제국방(太平惠民和劑局方)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사군자탕(四君子湯)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보기건비(補氣健脾), 이수소종(利水消腫)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인수분해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔물탕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대보기혈(大補氣血), 조화음양(調和陰陽)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감초(甘草), 당귀(當歸), 복령(茯苓), 백작약(白芍藥), 백출(白朮), 숙지황(熟地黃), 인삼(人蔘), 천궁(川芎)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비위론(脾胃論)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>효능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치자(梔子)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목단피(牡丹皮)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박하(薄荷)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사물탕(四物湯)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이중탕(理中湯)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>健脾益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；燥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>湿利水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；止汗；安胎</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主脾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气虚弱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；神疲乏力；食少少腹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；大便溏薄；水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饮内停</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；小便不利；水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；痰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饮眩晕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温痹酸痛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气虚自汗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；胎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动不安</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인삼(人蔘), 감초(甘草), 백출(白出), 건강(乾薑)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>益脾肺氣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>감초(甘草)</t>
-  </si>
-  <si>
-    <t>복령(茯苓)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>태평혜민화제국방(太平惠民和劑局方)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사군자탕(四君子湯)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보기건비(補氣健脾), 이수소종(利水消腫)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인수분해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔물탕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대보기혈(大補氣血), 조화음양(調和陰陽)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>감초(甘草), 당귀(當歸), 복령(茯苓), 백작약(白芍藥), 백출(白朮), 숙지황(熟地黃), 인삼(人蔘), 천궁(川芎)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비위론(脾胃論)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>당귀(當歸), 백작약(白芍藥), 숙지황(熟地黃), 천궁(川芎)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사물탕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중화본초(http://www.zhongyaocai360.com/b/baishu.html)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>气补中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缓急止痛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>润肺止咳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泻火解毒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调和诸药</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主倦怠食少；肌瘦面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；心悸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>短；腹痛便溏；四肢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>挛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>急疼痛；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>躁；咳嗽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>喘；咽喉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>肿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>痛；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>痈疮肿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>痛；小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>胎毒；及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>药</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物、食物中毒</t>
+    </r>
+  </si>
+  <si>
+    <t>調和 脾胃之陰陽(理)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补元气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，固</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>脱生津</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，安神</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>治</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>劳伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>损</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，食少，倦怠，反胃吐食，大便滑泄，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>咳喘促，自汗暴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>惊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>悸，健忘，眩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晕头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>痛，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>痿，尿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，消渴，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>妇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>女崩漏，小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>慢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>惊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，及久</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，一切</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>血津液不足之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>중약대사전(http://www.zhongyaocai360.com/r/renshen.html#9766)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>補脾肺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창출(蒼朮)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>補肝脾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중화본초(http://www.zhongyaocai360.com/g/gancao.html)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강(乾薑)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溫中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반하(半夏)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반하(半夏), 생강(生薑)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생강(生薑)</t>
+  </si>
+  <si>
+    <t>중화본초(http://www.zhongyaocai360.com/G/ganjiang.html#22905)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>温中散寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回阳通脉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温肺化饮</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主脘腹冷痛；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>呕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吐；泄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>泻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，亡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>阳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>厥逆；寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>饮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>喘咳；寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>湿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>痹痛</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>渗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>湿利水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；健脾和胃；宁心安神</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主小便不利；水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>肿胀满</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；痰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>饮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>咳逆；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>呕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吐；脾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>食少；泄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>泻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；心悸不安；失眠健忘；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>精白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浊</t>
+    </r>
+  </si>
+  <si>
+    <t>중화본초(http://www.zhongyaocai360.com/F/fuling.html#26590)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渗濕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가미소요산(加味逍遙散)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감초(甘草), 당귀(當歸), 복령(茯苓), 작약(芍藥), 백출(白朮), 시호(柴胡), 치자(梔子), 목단피(牡丹皮), 박하(薄荷)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당귀(當歸), 작약(芍藥), 숙지황(熟地黃), 천궁(川芎)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작약(芍藥)</t>
+  </si>
+  <si>
+    <t>숙지황(熟地黃)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>천궁(川芎)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +1477,59 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,9 +1551,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -485,15 +1835,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9699CE37-96BC-4091-89B3-376AEBE67CA0}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,19 +1854,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -528,15 +1881,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,41 +1900,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -593,15 +1957,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA19F3C-CCEA-4F92-8B67-3503A003035F}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,38 +1976,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -654,15 +2029,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA10C33-FCFC-4402-984D-CD53C426A648}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,64 +2045,222 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>20</v>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
